--- a/biology/Zoologie/Asthenodipsas/Asthenodipsas.xlsx
+++ b/biology/Zoologie/Asthenodipsas/Asthenodipsas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Asthenodipsas est un genre de serpents de la famille des Pareatidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asthenodipsas est un genre de serpents de la famille des Pareatidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 8 espèces de ce genre se rencontrent en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 8 espèces de ce genre se rencontrent en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,15 +556,17 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (23 juin 2020)[2] :
-Asthenodipsas borneensis Quah et al.[3], 2020
-Asthenodipsas jamilinaisi Quah et al.[4], 2019
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (23 juin 2020) :
+Asthenodipsas borneensis Quah et al., 2020
+Asthenodipsas jamilinaisi Quah et al., 2019
 Asthenodipsas laevis (Boie, 1827)
-Asthenodipsas lasgalenensis Loredo et al.[5], 2013
+Asthenodipsas lasgalenensis Loredo et al., 2013
 Asthenodipsas malaccanus Peters, 1864
-Asthenodipsas stuebingi Quah et al.[4], 2019
+Asthenodipsas stuebingi Quah et al., 2019
 Asthenodipsas tropidonotus (Lidth De Jeude, 1923)
 Asthenodipsas vertebralis (Boulenger, 1900)</t>
         </is>
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Peters, 1864 : Über neue Amphibien (Typhloscincus, Typhlops, Asthenodipsas, Ogmodon). Monatsberichte der Königlichen Preussischen Akademie der Wissenschaften zu Berlin, vol. 1864, p. 271-276 (texte intégral).</t>
         </is>
